--- a/branches/update-emr-bundle-uml/ValueSet-vs-specimen-type.xlsx
+++ b/branches/update-emr-bundle-uml/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:55:13+00:00</t>
+    <t>2023-03-03T15:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle-uml/ValueSet-vs-specimen-type.xlsx
+++ b/branches/update-emr-bundle-uml/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:04:29+00:00</t>
+    <t>2023-03-03T15:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-emr-bundle-uml/ValueSet-vs-specimen-type.xlsx
+++ b/branches/update-emr-bundle-uml/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:12:51+00:00</t>
+    <t>2023-03-03T15:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
